--- a/assets/disciplinas/LOM3003.xlsx
+++ b/assets/disciplinas/LOM3003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar os principais conceitos sobre as transformações de fases em materiais metálicos, poliméricos e cerâmicos abrangendo transformações difusionais e não-difusionais, a conceituação sobre nucleação e crescimento (aspectos energéticos) e sua relação com problemas práticos encontrados nas indústrias de processamento e de transformação de materiais.</t>
+    <t>984972 - Hugo Ricardo Zschommler Sandim</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>984972 - Hugo Ricardo Zschommler Sandim</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Difusão no estado sólido.Difusão em materiais não-metálicos (sólidos iônicos e polímeros).Recuperação, recristalização e crescimento de grão.Solidificação.Precipitação.Cinética de transformação no sistema Fe-C e em ligas não-ferrosas.Transformação de fases em vidros e cerâmicas.Transformação de fases em polímeros.Atividade experimental.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Introdução à difusão no estado sólido. Coeficiente de difusão. Leis de Fick. Difusão em soluções diluídas e na presença de um gradiente de concentração. Efeito Kirkendall.- Apresentar os fundamentos teóricos pertinentes à transformação de fases em materiais metálicos, cerâmicos e poliméricos.- Apresentar os conceitos fundamentais associados à nucleação, ao crescimento e à cinética de transformação de fases.- Descrições detalhadas de microestruturas fundidas e tratadas termicamente. Aspectos morfológicos relevantes.- Descrição das principais transformações de fase no estado sólido no sistema Fe-C e em algumas ligas não-ferrosas. Curvas TTT e CCT (TRC).- Estudar a transformação de fases durante o processamento termomecânico de metais e ligas.- Realização de prática experimental versando sobre tópicos da ementa.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>O aluno será avaliado ao longo do semestre por duas avaliações escritas (P1 e P2) e com pesos iguais.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Nota Final NF = [P1 + P2]/2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Para a recuperação será realizada uma prova escrita (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1 - Diffusion in solids. P.G. Shewmon, McGraw-Hill, 1963.2 - Phase transformation in metals. P.G. Shewmon, McGraw-Hill, 1969.3 - Recrystallization and related annealing phenomena. F.J. Humphreys and M. Hatherly, Pergamon, 1996.4 - Principles of solidification. B. Chalmers, Robert E. Krieger, 2nd. ed., 1977.5 - Precipitation hardening. A. Kelly, Pergamon, 1963.6 - Particle strengthening of metals and alloys. E. Nembach, John Wiley &amp; Sons, 1997.7 - Propriedades dos materiais cerâmicos. L.H. Van Vlack, Edgard Blücher, 1973.8 - Textbook of polymer science. F.W. Billmeyer Jr., John Wiley &amp; Sons, 1962.9 - Worked examples in the kinetics and thermodynamics of phase transformations. E.A. Wilson, The Institution of Metallurgists, s.d.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3003.xlsx
+++ b/assets/disciplinas/LOM3003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar os principais conceitos sobre as transformações de fases em materiais metálicos, poliméricos e cerâmicos abrangendo transformações difusionais e não-difusionais, a conceituação sobre nucleação e crescimento (aspectos energéticos) e sua relação com problemas práticos encontrados nas indústrias de processamento e de transformação de materiais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>984972 - Hugo Ricardo Zschommler Sandim</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Difusão no estado sólido.Difusão em materiais não-metálicos (sólidos iônicos e polímeros).Recuperação, recristalização e crescimento de grão.Solidificação.Precipitação.Cinética de transformação no sistema Fe-C e em ligas não-ferrosas.Transformação de fases em vidros e cerâmicas.Transformação de fases em polímeros.Atividade experimental.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Introdução à difusão no estado sólido. Coeficiente de difusão. Leis de Fick. Difusão em soluções diluídas e na presença de um gradiente de concentração. Efeito Kirkendall.- Apresentar os fundamentos teóricos pertinentes à transformação de fases em materiais metálicos, cerâmicos e poliméricos.- Apresentar os conceitos fundamentais associados à nucleação, ao crescimento e à cinética de transformação de fases.- Descrições detalhadas de microestruturas fundidas e tratadas termicamente. Aspectos morfológicos relevantes.- Descrição das principais transformações de fase no estado sólido no sistema Fe-C e em algumas ligas não-ferrosas. Curvas TTT e CCT (TRC).- Estudar a transformação de fases durante o processamento termomecânico de metais e ligas.- Realização de prática experimental versando sobre tópicos da ementa.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>O aluno será avaliado ao longo do semestre por duas avaliações escritas (P1 e P2) e com pesos iguais.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>O aluno será avaliado ao longo do semestre por duas avaliações escritas (P1 e P2) e com pesos iguais.</t>
+    <t>Nota Final NF = [P1 + P2]/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Nota Final NF = [P1 + P2]/2</t>
+    <t>Para a recuperação será realizada uma prova escrita (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Para a recuperação será realizada uma prova escrita (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2</t>
+    <t>1 - Diffusion in solids. P.G. Shewmon, McGraw-Hill, 1963.2 - Phase transformation in metals. P.G. Shewmon, McGraw-Hill, 1969.3 - Recrystallization and related annealing phenomena. F.J. Humphreys and M. Hatherly, Pergamon, 1996.4 - Principles of solidification. B. Chalmers, Robert E. Krieger, 2nd. ed., 1977.5 - Precipitation hardening. A. Kelly, Pergamon, 1963.6 - Particle strengthening of metals and alloys. E. Nembach, John Wiley &amp; Sons, 1997.7 - Propriedades dos materiais cerâmicos. L.H. Van Vlack, Edgard Blücher, 1973.8 - Textbook of polymer science. F.W. Billmeyer Jr., John Wiley &amp; Sons, 1962.9 - Worked examples in the kinetics and thermodynamics of phase transformations. E.A. Wilson, The Institution of Metallurgists, s.d.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +487,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +612,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
